--- a/result/result_book.xlsx
+++ b/result/result_book.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasunoyoshitomo/workspace/trump_stock/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA749D-86B0-974A-B8A8-5E19776050C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA74EB1-12D4-CF45-A5C0-17DAFC261D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4780" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{485A0D6C-5C69-DE47-895B-B18E0B8E0632}"/>
+    <workbookView xWindow="-4920" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{485A0D6C-5C69-DE47-895B-B18E0B8E0632}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="rate" sheetId="2" r:id="rId2"/>
-    <sheet name="fluctuation" sheetId="3" r:id="rId3"/>
-    <sheet name="Figure template" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="correlation" sheetId="6" r:id="rId4"/>
+    <sheet name="fluctuation" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure template" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
   <si>
     <t>POMS Mood 算出データ</t>
   </si>
@@ -109,33 +111,88 @@
   <si>
     <t>Lag</t>
   </si>
+  <si>
+    <t>ラグ次数</t>
+  </si>
+  <si>
+    <t>憂鬱</t>
+  </si>
+  <si>
+    <t>緊張</t>
+  </si>
+  <si>
+    <t>相関係数</t>
+  </si>
+  <si>
+    <t>怒り</t>
+  </si>
+  <si>
+    <t>疲労</t>
+  </si>
+  <si>
+    <t>混乱</t>
+  </si>
+  <si>
+    <t>活力</t>
+  </si>
+  <si>
+    <t>株価(ツイート後)</t>
+  </si>
+  <si>
+    <t>変動率</t>
+  </si>
+  <si>
+    <t>Positive</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Negative</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相関係数</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -310,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -333,11 +390,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -360,11 +431,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <u/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -400,11 +472,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <u/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -425,6 +498,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -500,6 +594,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -522,7 +636,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -824,17 +938,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
@@ -847,7 +961,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -870,7 +984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -893,7 +1007,7 @@
         <v>4.3061000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
@@ -904,7 +1018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -915,7 +1029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -926,7 +1040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -938,6 +1052,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -948,12 +1063,12 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
@@ -979,7 +1094,7 @@
       </c>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1135,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1036,11 +1151,11 @@
       <c r="E3" s="5">
         <v>7.8049105706446298E-2</v>
       </c>
-      <c r="F3" s="20">
-        <v>2.8312090000000002E-2</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0.86639853</v>
+      <c r="F3" s="23">
+        <v>1.6287001154506</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.20199874848888899</v>
       </c>
       <c r="H3" s="10">
         <v>0.40064335948650198</v>
@@ -1051,8 +1166,8 @@
       <c r="J3" s="10">
         <v>2.3755593044359</v>
       </c>
-      <c r="K3" s="5">
-        <v>0.123445809618872</v>
+      <c r="K3" s="23">
+        <v>0.22845145130479699</v>
       </c>
       <c r="L3" s="3">
         <v>1.79422000417504</v>
@@ -1061,7 +1176,7 @@
         <v>0.180603668089831</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1077,11 +1192,11 @@
       <c r="E4" s="5">
         <v>6.1484680080554098E-2</v>
       </c>
-      <c r="F4" s="20">
-        <v>0.13334536</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0.87517257000000004</v>
+      <c r="F4" s="23">
+        <v>0.59498913153573596</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.55164493567760797</v>
       </c>
       <c r="H4" s="10">
         <v>0.43554553290206</v>
@@ -1092,8 +1207,8 @@
       <c r="J4" s="10">
         <v>1.3065730216423601</v>
       </c>
-      <c r="K4" s="5">
-        <v>0.27103647478479997</v>
+      <c r="K4" s="23">
+        <v>0.39642409690580999</v>
       </c>
       <c r="L4" s="3">
         <v>1.4435259292284199</v>
@@ -1102,7 +1217,7 @@
         <v>0.236402690926379</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1118,11 +1233,11 @@
       <c r="E5" s="5">
         <v>0.12525347348461999</v>
       </c>
-      <c r="F5" s="20">
-        <v>1.3489187899999999</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0.25687059000000001</v>
+      <c r="F5" s="23">
+        <v>0.38064865099297701</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.76696666337557395</v>
       </c>
       <c r="H5" s="10">
         <v>0.80440990780178701</v>
@@ -1133,8 +1248,8 @@
       <c r="J5" s="10">
         <v>1.01726636877792</v>
       </c>
-      <c r="K5" s="5">
-        <v>0.384005814348651</v>
+      <c r="K5" s="23">
+        <v>0.43819991488978499</v>
       </c>
       <c r="L5" s="3">
         <v>0.846428540363103</v>
@@ -1143,7 +1258,7 @@
         <v>0.46845259159333402</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1159,11 +1274,11 @@
       <c r="E6" s="5">
         <v>8.5030522610679199E-2</v>
       </c>
-      <c r="F6" s="20">
-        <v>2.0511651500000001</v>
-      </c>
-      <c r="G6" s="16">
-        <v>8.4906480000000006E-2</v>
+      <c r="F6" s="23">
+        <v>2.4550924117777599</v>
+      </c>
+      <c r="G6" s="23">
+        <v>4.3837336712911998E-2</v>
       </c>
       <c r="H6" s="10">
         <v>0.93038087110900403</v>
@@ -1174,8 +1289,8 @@
       <c r="J6" s="10">
         <v>2.2647244022744402</v>
       </c>
-      <c r="K6" s="5">
-        <v>6.0136567269474701E-2</v>
+      <c r="K6" s="23">
+        <v>0.12784816642805</v>
       </c>
       <c r="L6" s="3">
         <v>0.83660072271743402</v>
@@ -1184,7 +1299,7 @@
         <v>0.50183661522401202</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1200,11 +1315,11 @@
       <c r="E7" s="5">
         <v>0.11786527655061101</v>
       </c>
-      <c r="F7" s="20">
-        <v>1.7539311900000001</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0.11929933</v>
+      <c r="F7" s="23">
+        <v>2.09947385132527</v>
+      </c>
+      <c r="G7" s="23">
+        <v>6.2675572692860407E-2</v>
       </c>
       <c r="H7" s="10">
         <v>0.80951966070042103</v>
@@ -1215,8 +1330,8 @@
       <c r="J7" s="10">
         <v>2.3035820236050899</v>
       </c>
-      <c r="K7" s="5">
-        <v>4.2533698874424701E-2</v>
+      <c r="K7" s="23">
+        <v>0.116318607944998</v>
       </c>
       <c r="L7" s="3">
         <v>1.14211314202846</v>
@@ -1225,7 +1340,7 @@
         <v>0.33591798010610302</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1241,11 +1356,11 @@
       <c r="E8" s="5">
         <v>0.17103763459049401</v>
       </c>
-      <c r="F8" s="20">
-        <v>1.73328865</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0.10958118999999999</v>
+      <c r="F8" s="23">
+        <v>1.8208630169719899</v>
+      </c>
+      <c r="G8" s="23">
+        <v>9.1186965666143996E-2</v>
       </c>
       <c r="H8" s="10">
         <v>1.4324122263902099</v>
@@ -1256,8 +1371,8 @@
       <c r="J8" s="10">
         <v>2.0926579214730601</v>
       </c>
-      <c r="K8" s="5">
-        <v>5.1284266838652698E-2</v>
+      <c r="K8" s="23">
+        <v>8.6337454872220304E-2</v>
       </c>
       <c r="L8" s="3">
         <v>0.97049657710440695</v>
@@ -1266,7 +1381,7 @@
         <v>0.44369601474703302</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1282,11 +1397,11 @@
       <c r="E9" s="5">
         <v>0.17782051658607501</v>
       </c>
-      <c r="F9" s="20">
-        <v>1.58118848</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0.13657663</v>
+      <c r="F9" s="23">
+        <v>1.88832652380527</v>
+      </c>
+      <c r="G9" s="23">
+        <v>6.7451868173594595E-2</v>
       </c>
       <c r="H9" s="10">
         <v>1.37458349765667</v>
@@ -1297,8 +1412,8 @@
       <c r="J9" s="10">
         <v>2.7254305379539701</v>
       </c>
-      <c r="K9" s="5">
-        <v>8.2075555071797097E-3</v>
+      <c r="K9" s="23">
+        <v>6.8644012340637203E-2</v>
       </c>
       <c r="L9" s="3">
         <v>0.87212780101618004</v>
@@ -1307,7 +1422,7 @@
         <v>0.52780323036754795</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1323,11 +1438,11 @@
       <c r="E10" s="5">
         <v>0.213079298175505</v>
       </c>
-      <c r="F10" s="20">
-        <v>1.5324592699999999</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.14100486000000001</v>
+      <c r="F10" s="23">
+        <v>1.6844089132168301</v>
+      </c>
+      <c r="G10" s="23">
+        <v>9.7108846013463201E-2</v>
       </c>
       <c r="H10" s="10">
         <v>1.3788112592633801</v>
@@ -1338,8 +1453,8 @@
       <c r="J10" s="10">
         <v>2.3613064133292201</v>
       </c>
-      <c r="K10" s="5">
-        <v>1.58882035234005E-2</v>
+      <c r="K10" s="23">
+        <v>8.5989297452713498E-2</v>
       </c>
       <c r="L10" s="3">
         <v>1.3958169048739999</v>
@@ -1348,7 +1463,7 @@
         <v>0.19343729916077901</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1364,11 +1479,11 @@
       <c r="E11" s="5">
         <v>0.277402200482259</v>
       </c>
-      <c r="F11" s="20">
-        <v>1.59735235</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0.11064851000000001</v>
+      <c r="F11" s="23">
+        <v>1.6946543351885299</v>
+      </c>
+      <c r="G11" s="23">
+        <v>8.4882115147553103E-2</v>
       </c>
       <c r="H11" s="10">
         <v>1.2718634538628</v>
@@ -1379,8 +1494,8 @@
       <c r="J11" s="10">
         <v>2.27929598349687</v>
       </c>
-      <c r="K11" s="5">
-        <v>1.5456729616707901E-2</v>
+      <c r="K11" s="23">
+        <v>8.6175149809970306E-2</v>
       </c>
       <c r="L11" s="3">
         <v>1.2572150828048101</v>
@@ -1389,7 +1504,7 @@
         <v>0.25573892351095001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1405,11 +1520,11 @@
       <c r="E12" s="5">
         <v>0.32179365778822</v>
       </c>
-      <c r="F12" s="20">
-        <v>1.8330464799999999</v>
-      </c>
-      <c r="G12" s="16">
-        <v>5.0567559999999998E-2</v>
+      <c r="F12" s="23">
+        <v>1.5040504327530699</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0.13134606875764501</v>
       </c>
       <c r="H12" s="10">
         <v>1.2984085986988101</v>
@@ -1420,8 +1535,8 @@
       <c r="J12" s="10">
         <v>2.1131055979215398</v>
       </c>
-      <c r="K12" s="5">
-        <v>2.07930366772014E-2</v>
+      <c r="K12" s="23">
+        <v>9.5706475451820094E-2</v>
       </c>
       <c r="L12" s="3">
         <v>1.17014563600999</v>
@@ -1430,7 +1545,7 @@
         <v>0.30650025548366899</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1446,11 +1561,11 @@
       <c r="E13" s="5">
         <v>0.39952289942609198</v>
       </c>
-      <c r="F13" s="20">
-        <v>1.83809899</v>
-      </c>
-      <c r="G13" s="16">
-        <v>4.3361610000000002E-2</v>
+      <c r="F13" s="23">
+        <v>1.3930723552186799</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.168967528863297</v>
       </c>
       <c r="H13" s="10">
         <v>1.1252283412845301</v>
@@ -1461,8 +1576,8 @@
       <c r="J13" s="10">
         <v>2.0036500930607</v>
       </c>
-      <c r="K13" s="5">
-        <v>2.47696803324335E-2</v>
+      <c r="K13" s="23">
+        <v>0.104778500155365</v>
       </c>
       <c r="L13" s="3">
         <v>1.0990896776988399</v>
@@ -1471,7 +1586,7 @@
         <v>0.35780065075171202</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1487,11 +1602,11 @@
       <c r="E14" s="5">
         <v>0.45457542904607601</v>
       </c>
-      <c r="F14" s="20">
-        <v>2.4263225899999998</v>
-      </c>
-      <c r="G14" s="16">
-        <v>4.0216499999999999E-3</v>
+      <c r="F14" s="23">
+        <v>1.2838532139010399</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.22080728081159601</v>
       </c>
       <c r="H14" s="10">
         <v>1.4554724747701999</v>
@@ -1502,8 +1617,8 @@
       <c r="J14" s="10">
         <v>1.9289871104725</v>
       </c>
-      <c r="K14" s="5">
-        <v>2.72926339304887E-2</v>
+      <c r="K14" s="23">
+        <v>8.6737288463721696E-2</v>
       </c>
       <c r="L14" s="3">
         <v>1.0984728580793199</v>
@@ -1512,7 +1627,7 @@
         <v>0.356925976205342</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1528,11 +1643,11 @@
       <c r="E15" s="5">
         <v>0.52849916660541396</v>
       </c>
-      <c r="F15" s="20">
-        <v>2.3707527100000001</v>
-      </c>
-      <c r="G15" s="16">
-        <v>3.8220799999999998E-3</v>
+      <c r="F15" s="23">
+        <v>1.1932281579725099</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.27729382809832498</v>
       </c>
       <c r="H15" s="10">
         <v>1.36811866700641</v>
@@ -1543,8 +1658,8 @@
       <c r="J15" s="10">
         <v>2.02518349956449</v>
       </c>
-      <c r="K15" s="5">
-        <v>1.5982224267070098E-2</v>
+      <c r="K15" s="23">
+        <v>8.6457163959141797E-2</v>
       </c>
       <c r="L15" s="3">
         <v>1.21408132957324</v>
@@ -1553,7 +1668,7 @@
         <v>0.26238847893015099</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1569,11 +1684,11 @@
       <c r="E16" s="5">
         <v>0.57177024729846004</v>
       </c>
-      <c r="F16" s="20">
-        <v>2.25139428</v>
-      </c>
-      <c r="G16" s="16">
-        <v>4.9915899999999997E-3</v>
+      <c r="F16" s="23">
+        <v>1.3323288199176999</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0.17965167346911401</v>
       </c>
       <c r="H16" s="10">
         <v>1.55448500545712</v>
@@ -1584,8 +1699,8 @@
       <c r="J16" s="10">
         <v>2.0652759114663399</v>
       </c>
-      <c r="K16" s="5">
-        <v>1.1264185262878101E-2</v>
+      <c r="K16" s="23">
+        <v>8.4696272654067706E-2</v>
       </c>
       <c r="L16" s="3">
         <v>1.17516712792445</v>
@@ -1594,7 +1709,7 @@
         <v>0.28788541352522101</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -1610,11 +1725,11 @@
       <c r="E17" s="5">
         <v>0.60761814006825898</v>
       </c>
-      <c r="F17" s="20">
-        <v>2.12001361</v>
-      </c>
-      <c r="G17" s="16">
-        <v>7.2714399999999997E-3</v>
+      <c r="F17" s="23">
+        <v>1.3451494836884901</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.16630480558777799</v>
       </c>
       <c r="H17" s="10">
         <v>1.4713032823707901</v>
@@ -1625,8 +1740,8 @@
       <c r="J17" s="10">
         <v>1.96732932225382</v>
       </c>
-      <c r="K17" s="5">
-        <v>1.4471510310101901E-2</v>
+      <c r="K17" s="23">
+        <v>0.10690370912167101</v>
       </c>
       <c r="L17" s="3">
         <v>1.1990493943398499</v>
@@ -1635,7 +1750,7 @@
         <v>0.264927923301709</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -1651,11 +1766,11 @@
       <c r="E18" s="5">
         <v>0.66709923666728399</v>
       </c>
-      <c r="F18" s="20">
-        <v>2.0623302899999998</v>
-      </c>
-      <c r="G18" s="16">
-        <v>7.8590699999999993E-3</v>
+      <c r="F18" s="23">
+        <v>1.26012112280362</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0.21409744985225701</v>
       </c>
       <c r="H18" s="10">
         <v>1.3959310531875599</v>
@@ -1666,8 +1781,8 @@
       <c r="J18" s="10">
         <v>1.8639924830215</v>
       </c>
-      <c r="K18" s="5">
-        <v>1.9769914526940501E-2</v>
+      <c r="K18" s="23">
+        <v>0.14058487038957601</v>
       </c>
       <c r="L18" s="3">
         <v>1.2064282974835301</v>
@@ -1676,7 +1791,7 @@
         <v>0.25490523536448101</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1692,11 +1807,11 @@
       <c r="E19" s="5">
         <v>0.71617283195564296</v>
       </c>
-      <c r="F19" s="20">
-        <v>2.0155545699999999</v>
-      </c>
-      <c r="G19" s="16">
-        <v>8.2616100000000008E-3</v>
+      <c r="F19" s="23">
+        <v>1.2020360337331299</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0.25367012293676799</v>
       </c>
       <c r="H19" s="10">
         <v>1.3304924559667</v>
@@ -1707,8 +1822,8 @@
       <c r="J19" s="10">
         <v>1.9052453479360401</v>
       </c>
-      <c r="K19" s="5">
-        <v>1.41697686530352E-2</v>
+      <c r="K19" s="23">
+        <v>0.178585412376285</v>
       </c>
       <c r="L19" s="3">
         <v>1.1373486580088199</v>
@@ -1717,7 +1832,7 @@
         <v>0.31113888401075102</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1733,11 +1848,11 @@
       <c r="E20" s="5">
         <v>0.62202106648979805</v>
       </c>
-      <c r="F20" s="20">
-        <v>1.95430802</v>
-      </c>
-      <c r="G20" s="16">
-        <v>9.5556800000000004E-3</v>
+      <c r="F20" s="23">
+        <v>1.3144414225144501</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0.167734356825986</v>
       </c>
       <c r="H20" s="10">
         <v>1.2874316777472199</v>
@@ -1748,8 +1863,8 @@
       <c r="J20" s="10">
         <v>1.7975077825002299</v>
       </c>
-      <c r="K20" s="5">
-        <v>2.0896608930176499E-2</v>
+      <c r="K20" s="23">
+        <v>0.223423207624176</v>
       </c>
       <c r="L20" s="3">
         <v>1.1440458225980099</v>
@@ -1758,7 +1873,7 @@
         <v>0.30205857064032199</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -1774,11 +1889,11 @@
       <c r="E21" s="5">
         <v>0.687831055116227</v>
       </c>
-      <c r="F21" s="20">
-        <v>1.8351974900000001</v>
-      </c>
-      <c r="G21" s="16">
-        <v>1.530162E-2</v>
+      <c r="F21" s="23">
+        <v>1.4120427537097899</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0.10996601807853799</v>
       </c>
       <c r="H21" s="10">
         <v>1.21457891236686</v>
@@ -1789,8 +1904,8 @@
       <c r="J21" s="10">
         <v>1.6997964038887401</v>
       </c>
-      <c r="K21" s="5">
-        <v>3.0153130472481901E-2</v>
+      <c r="K21" s="23">
+        <v>0.28134401530653602</v>
       </c>
       <c r="L21" s="3">
         <v>1.0868394735961699</v>
@@ -1799,7 +1914,7 @@
         <v>0.35784587483576602</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -1815,11 +1930,11 @@
       <c r="E22" s="8">
         <v>0.73279020509741699</v>
       </c>
-      <c r="F22" s="21">
-        <v>1.7608946299999999</v>
-      </c>
-      <c r="G22" s="17">
-        <v>1.9977559999999998E-2</v>
+      <c r="F22" s="23">
+        <v>1.33659988742535</v>
+      </c>
+      <c r="G22" s="23">
+        <v>0.14434056397682099</v>
       </c>
       <c r="H22" s="11">
         <v>1.16353089536261</v>
@@ -1830,8 +1945,8 @@
       <c r="J22" s="11">
         <v>1.72970103610092</v>
       </c>
-      <c r="K22" s="8">
-        <v>2.3479608326835599E-2</v>
+      <c r="K22" s="23">
+        <v>0.24792453669349401</v>
       </c>
       <c r="L22" s="6">
         <v>1.18652420855984</v>
@@ -1841,49 +1956,55 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K22">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C22">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G22">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E22">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G12">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I22">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M22">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:K22">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1893,6 +2014,546 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EEBC9D-A468-404B-BC4E-5E722797D202}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2.8312090000000002E-2</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.86639853</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2.3755593044359</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.123445809618872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0.13334536</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.87517257000000004</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.3065730216423601</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.27103647478479997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1.3489187899999999</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.25687059000000001</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.01726636877792</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.384005814348651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20">
+        <v>2.0511651500000001</v>
+      </c>
+      <c r="C6" s="16">
+        <v>8.4906480000000006E-2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.2647244022744402</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6.0136567269474701E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1.7539311900000001</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.11929933</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2.3035820236050899</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.2533698874424701E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1.73328865</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.10958118999999999</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2.0926579214730601</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5.1284266838652698E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1.58118848</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.13657663</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2.7254305379539701</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8.2075555071797097E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1.5324592699999999</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.14100486000000001</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2.3613064133292201</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.58882035234005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1.59735235</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.11064851000000001</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2.27929598349687</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.5456729616707901E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1.8330464799999999</v>
+      </c>
+      <c r="C12" s="16">
+        <v>5.0567559999999998E-2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2.1131055979215398</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.07930366772014E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1.83809899</v>
+      </c>
+      <c r="C13" s="16">
+        <v>4.3361610000000002E-2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2.0036500930607</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.47696803324335E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2.4263225899999998</v>
+      </c>
+      <c r="C14" s="16">
+        <v>4.0216499999999999E-3</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1.9289871104725</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2.72926339304887E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20">
+        <v>2.3707527100000001</v>
+      </c>
+      <c r="C15" s="16">
+        <v>3.8220799999999998E-3</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2.02518349956449</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.5982224267070098E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20">
+        <v>2.25139428</v>
+      </c>
+      <c r="C16" s="16">
+        <v>4.9915899999999997E-3</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2.0652759114663399</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.1264185262878101E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20">
+        <v>2.12001361</v>
+      </c>
+      <c r="C17" s="16">
+        <v>7.2714399999999997E-3</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1.96732932225382</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.4471510310101901E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20">
+        <v>2.0623302899999998</v>
+      </c>
+      <c r="C18" s="16">
+        <v>7.8590699999999993E-3</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1.8639924830215</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.9769914526940501E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20">
+        <v>2.0155545699999999</v>
+      </c>
+      <c r="C19" s="16">
+        <v>8.2616100000000008E-3</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1.9052453479360401</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.41697686530352E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20">
+        <v>1.95430802</v>
+      </c>
+      <c r="C20" s="16">
+        <v>9.5556800000000004E-3</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1.7975077825002299</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2.0896608930176499E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1.8351974900000001</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1.530162E-2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1.6997964038887401</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3.0153130472481901E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21">
+        <v>1.7608946299999999</v>
+      </c>
+      <c r="C22" s="17">
+        <v>1.9977559999999998E-2</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1.72970103610092</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2.3479608326835599E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C22">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C12">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C22 C3">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E22">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E22">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D235A753-3B5D-8D4E-86FE-6BC8E4FEBBD4}">
+  <dimension ref="A2:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="15">
+        <v>5.0805999999999997E-2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>7.1539999999999998E-3</v>
+      </c>
+      <c r="D3" s="15">
+        <v>-2.8657999999999999E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>-3.1817999999999999E-2</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2.4937999999999998E-2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>-2.7203000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="15">
+        <v>5.4190000000000002E-3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3.3395000000000001E-2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>-2.9623E-2</v>
+      </c>
+      <c r="E4" s="15">
+        <v>-2.5225000000000001E-2</v>
+      </c>
+      <c r="F4" s="15">
+        <v>-2.5725000000000001E-2</v>
+      </c>
+      <c r="G4" s="15">
+        <v>6.3990000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="15">
+        <v>-6.4583000000000002E-2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>4.5539000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15">
+        <v>-2.9840000000000001E-3</v>
+      </c>
+      <c r="C9" s="15">
+        <v>-1.7395000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF158211-4475-444C-8430-CFF24FF3008F}">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -1900,9 +2561,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="9"/>
       <c r="B1" s="12" t="s">
         <v>2</v>
@@ -1929,7 +2590,7 @@
       </c>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -1970,7 +2631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2011,7 +2672,7 @@
         <v>0.17736289696186899</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2052,7 +2713,7 @@
         <v>0.21336972794575901</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2093,7 +2754,7 @@
         <v>0.40722933106430698</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2134,7 +2795,7 @@
         <v>0.45564886540890698</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2175,7 +2836,7 @@
         <v>0.30849630819429502</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2216,7 +2877,7 @@
         <v>0.40902351185383901</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2257,7 +2918,7 @@
         <v>0.48621301824823099</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -2298,7 +2959,7 @@
         <v>0.176546562649946</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -2339,7 +3000,7 @@
         <v>0.236330441385384</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -2380,7 +3041,7 @@
         <v>0.29550407035571402</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -2421,7 +3082,7 @@
         <v>0.342553565198364</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -2462,7 +3123,7 @@
         <v>0.338978980714012</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -2503,7 +3164,7 @@
         <v>0.25352598973551599</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -2544,7 +3205,7 @@
         <v>0.26519991137111998</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -2585,7 +3246,7 @@
         <v>0.238021216525234</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -2626,7 +3287,7 @@
         <v>0.224020602418359</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -2667,7 +3328,7 @@
         <v>0.27648653847230598</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -2708,7 +3369,7 @@
         <v>0.28056406664220701</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -2749,7 +3410,7 @@
         <v>0.33576369976713699</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -2791,18 +3452,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="M3:M22">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C22 E2:E22 G2:G22 I2:I22 K2:K22 M2:M22">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E22 G3:G22 I3:I22 K3:K22">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2810,7 +3472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202A4D00-EE7C-AC4B-BD3B-21A6802997D7}">
   <dimension ref="A1:M22"/>
   <sheetViews>
@@ -2818,9 +3480,9 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="9"/>
       <c r="B1" s="12" t="s">
         <v>2</v>
@@ -2847,7 +3509,7 @@
       </c>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -2888,7 +3550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2905,7 +3567,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2922,7 +3584,7 @@
       <c r="L4" s="10"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2939,7 +3601,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2956,7 +3618,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2973,7 +3635,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2990,7 +3652,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -3007,7 +3669,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -3024,7 +3686,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -3041,7 +3703,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -3058,7 +3720,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -3075,7 +3737,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -3092,7 +3754,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -3109,7 +3771,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -3126,7 +3788,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -3143,7 +3805,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -3160,7 +3822,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -3177,7 +3839,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -3194,7 +3856,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -3211,7 +3873,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -3229,6 +3891,7 @@
       <c r="M22" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>